--- a/notebooks/OFD1/input/OFD1_JBTS10_individuals.xlsx
+++ b/notebooks/OFD1/input/OFD1_JBTS10_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/OFD1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/OFD1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55E3F7-00F1-2D4F-A992-D01C4DAE0A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E5E0C3-CD01-E24A-8697-F24380F63C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="3200" windowWidth="30040" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="4080" windowWidth="30040" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="146">
   <si>
     <t>PMID</t>
   </si>
@@ -344,6 +344,120 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>PMID:22353940</t>
+  </si>
+  <si>
+    <t>Expanding the molecular basis and phenotypic spectrum of X-linked Joubert syndrome associated with OFD1 mutations</t>
+  </si>
+  <si>
+    <t>cousin V-3</t>
+  </si>
+  <si>
+    <t>Second trimester onset</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>Ventriculomegaly</t>
+  </si>
+  <si>
+    <t>HP:0002119</t>
+  </si>
+  <si>
+    <t>Infantile onset</t>
+  </si>
+  <si>
+    <t>Esotropia</t>
+  </si>
+  <si>
+    <t>HP:0000565</t>
+  </si>
+  <si>
+    <t>cousin V-9</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>P11Y</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>HP:0001249</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>HP:0000494</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Abnormal oral frenulum morphology</t>
+  </si>
+  <si>
+    <t>HP:0000190</t>
+  </si>
+  <si>
+    <t>Cleft lip</t>
+  </si>
+  <si>
+    <t>HP:0410030</t>
+  </si>
+  <si>
+    <t>Cleft palate</t>
+  </si>
+  <si>
+    <t>HP:0000175</t>
+  </si>
+  <si>
+    <t>Polycystic kidney dysplasia</t>
+  </si>
+  <si>
+    <t>HP:0000113</t>
+  </si>
+  <si>
+    <t>Hyperechogenic kidneys</t>
+  </si>
+  <si>
+    <t>HP:0004719</t>
+  </si>
+  <si>
+    <t>Enlarged cisterna magna</t>
+  </si>
+  <si>
+    <t>HP:0002280</t>
+  </si>
+  <si>
+    <t>Frontal polymicrogyria</t>
+  </si>
+  <si>
+    <t>HP:0006821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_003611.3(OFD1):c.689_706del (p.Ile230_Lys235del) </t>
+  </si>
+  <si>
+    <t>c.689_706del</t>
+  </si>
+  <si>
+    <t>P6Y</t>
   </si>
 </sst>
 </file>
@@ -714,18 +828,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:BF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="4" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,82 +902,121 @@
         <v>94</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="BA1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -924,82 +1078,121 @@
         <v>95</v>
       </c>
       <c r="U2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" t="s">
         <v>73</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AP2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AQ2" t="s">
         <v>70</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AR2" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AS2" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AT2" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AU2" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AV2" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AW2" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AX2" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AZ2" t="s">
         <v>102</v>
       </c>
+      <c r="BA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1057,44 +1250,44 @@
       <c r="T3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" t="s">
-        <v>103</v>
-      </c>
       <c r="V3" t="s">
         <v>103</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
       </c>
       <c r="AA3" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" t="s">
-        <v>103</v>
-      </c>
       <c r="AD3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE3" t="s">
         <v>93</v>
       </c>
       <c r="AG3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>103</v>
+        <v>103</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>93</v>
       </c>
       <c r="AQ3" t="s">
         <v>103</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AX3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1149,38 +1342,38 @@
       <c r="T4" t="s">
         <v>93</v>
       </c>
-      <c r="U4" t="s">
-        <v>103</v>
-      </c>
       <c r="V4" t="s">
         <v>103</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" t="s">
         <v>54</v>
       </c>
       <c r="AA4" t="s">
         <v>54</v>
       </c>
-      <c r="AC4" t="s">
-        <v>103</v>
-      </c>
       <c r="AD4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" t="s">
         <v>103</v>
       </c>
       <c r="AQ4" t="s">
         <v>103</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AX4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1235,38 +1428,38 @@
       <c r="T5" t="s">
         <v>93</v>
       </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
       <c r="V5" t="s">
         <v>93</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" t="s">
         <v>54</v>
       </c>
       <c r="AA5" t="s">
         <v>54</v>
       </c>
-      <c r="AC5" t="s">
-        <v>103</v>
-      </c>
       <c r="AD5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH5" t="s">
         <v>103</v>
       </c>
       <c r="AQ5" t="s">
         <v>103</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AX5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1321,38 +1514,38 @@
       <c r="T6" t="s">
         <v>93</v>
       </c>
-      <c r="U6" t="s">
-        <v>103</v>
-      </c>
       <c r="V6" t="s">
         <v>103</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" t="s">
         <v>54</v>
       </c>
       <c r="AA6" t="s">
         <v>54</v>
       </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
       <c r="AD6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
         <v>103</v>
       </c>
       <c r="AQ6" t="s">
         <v>103</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AX6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -1407,38 +1600,38 @@
       <c r="T7" t="s">
         <v>93</v>
       </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
       <c r="V7" t="s">
         <v>93</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
         <v>54</v>
       </c>
       <c r="AA7" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" t="s">
-        <v>103</v>
-      </c>
       <c r="AD7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH7" t="s">
         <v>103</v>
       </c>
       <c r="AQ7" t="s">
         <v>103</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AX7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1493,38 +1686,38 @@
       <c r="T8" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
-        <v>93</v>
-      </c>
       <c r="V8" t="s">
         <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
         <v>54</v>
       </c>
       <c r="AA8" t="s">
         <v>54</v>
       </c>
-      <c r="AC8" t="s">
-        <v>103</v>
-      </c>
       <c r="AD8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH8" t="s">
         <v>103</v>
       </c>
       <c r="AQ8" t="s">
         <v>103</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AX8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1579,38 +1772,38 @@
       <c r="T9" t="s">
         <v>93</v>
       </c>
-      <c r="U9" t="s">
-        <v>93</v>
-      </c>
       <c r="V9" t="s">
         <v>93</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
         <v>54</v>
       </c>
       <c r="AA9" t="s">
         <v>54</v>
       </c>
-      <c r="AC9" t="s">
-        <v>103</v>
-      </c>
       <c r="AD9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH9" t="s">
         <v>103</v>
       </c>
       <c r="AQ9" t="s">
         <v>103</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AX9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1665,17 +1858,14 @@
       <c r="T10" t="s">
         <v>93</v>
       </c>
-      <c r="U10" t="s">
-        <v>93</v>
-      </c>
       <c r="V10" t="s">
         <v>93</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="X10" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="Y10" t="s">
         <v>93</v>
@@ -1686,36 +1876,24 @@
       <c r="AA10" t="s">
         <v>93</v>
       </c>
-      <c r="AC10" t="s">
-        <v>93</v>
-      </c>
       <c r="AD10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF10" t="s">
         <v>93</v>
       </c>
       <c r="AG10" t="s">
         <v>93</v>
       </c>
       <c r="AH10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s">
         <v>93</v>
       </c>
       <c r="AJ10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s">
         <v>93</v>
       </c>
-      <c r="AN10" t="s">
-        <v>93</v>
-      </c>
       <c r="AO10" t="s">
         <v>93</v>
       </c>
@@ -1728,11 +1906,26 @@
       <c r="AR10" t="s">
         <v>93</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AU10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1790,9 +1983,6 @@
       <c r="T11" t="s">
         <v>93</v>
       </c>
-      <c r="U11" t="s">
-        <v>93</v>
-      </c>
       <c r="V11" t="s">
         <v>93</v>
       </c>
@@ -1802,37 +1992,284 @@
       <c r="X11" t="s">
         <v>93</v>
       </c>
-      <c r="Z11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH11" t="s">
         <v>93</v>
       </c>
       <c r="AQ11" t="s">
         <v>93</v>
       </c>
       <c r="AS11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" t="s">
+        <v>93</v>
+      </c>
+      <c r="V13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF13" t="s">
         <v>93</v>
       </c>
     </row>
